--- a/data files/Purchase Order/NAULAKHA.xlsx
+++ b/data files/Purchase Order/NAULAKHA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFACE0D9-5012-4B99-BC1A-B289A7482F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1D3A0-B3A9-4F3A-A9DF-E377776543C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Oxygen Concentrator, 5 liter</t>
   </si>
   <si>
-    <t>Loose with plain Polythene</t>
-  </si>
-  <si>
     <t>BP Digital</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Cat. No.</t>
+  </si>
+  <si>
+    <t>*Loose with plain Polythene</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="14"/>
       <c r="E2" s="20" t="s">
@@ -704,19 +704,19 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="27"/>
     </row>
@@ -787,7 +787,7 @@
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="24" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="16"/>
@@ -848,7 +848,7 @@
     <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="16" t="s">
@@ -881,7 +881,7 @@
     <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
@@ -892,7 +892,7 @@
     <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="16" t="s">
@@ -910,7 +910,7 @@
     <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="21"/>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="16" t="s">
@@ -921,7 +921,7 @@
     <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
       <c r="C26" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="16" t="s">
@@ -932,7 +932,7 @@
     <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="C27" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="16" t="s">
@@ -1049,7 +1049,7 @@
     <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="21"/>
       <c r="C39" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="16" t="s">
@@ -1059,7 +1059,7 @@
     <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="21"/>
       <c r="C40" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="16" t="s">

--- a/data files/Purchase Order/NAULAKHA.xlsx
+++ b/data files/Purchase Order/NAULAKHA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1D3A0-B3A9-4F3A-A9DF-E377776543C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A43594-3EC1-4FCD-B728-5536EDEAA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>pcs</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Douche Tube Deluxe</t>
   </si>
   <si>
-    <t>Steam Vaporizer Sleek All in One</t>
-  </si>
-  <si>
     <t>Digital Thermometer</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Oxygen Concentrator, 5 liter</t>
   </si>
   <si>
-    <t>BP Digital</t>
-  </si>
-  <si>
     <t>Hot Water Bottel</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t>Fetal Doppler NI/801</t>
   </si>
   <si>
-    <t>18/04/24</t>
-  </si>
-  <si>
-    <t>Pulse Oxymeter NI-715</t>
-  </si>
-  <si>
     <t>SI.</t>
   </si>
   <si>
@@ -133,13 +121,34 @@
   </si>
   <si>
     <t>*Loose with plain Polythene</t>
+  </si>
+  <si>
+    <t>Steam Vaporizer A-ONE, All in One</t>
+  </si>
+  <si>
+    <t>Oxygen Concentrator, 10 liter</t>
+  </si>
+  <si>
+    <t>BP Digital-NI/305</t>
+  </si>
+  <si>
+    <t>Nebulizer Kit-Adult</t>
+  </si>
+  <si>
+    <t>Nebulizer Kit-Pead</t>
+  </si>
+  <si>
+    <t>Pulse Oxymeter NI-704</t>
+  </si>
+  <si>
+    <t>Pulse Oxymeter NI-705</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +258,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -325,22 +340,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,6 +355,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,444 +671,558 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I45"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="19"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
+    <row r="2" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="14"/>
-      <c r="E2" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="17"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>50</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="24">
+        <v>100</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>144</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="24">
+        <v>120</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="8"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="24">
+        <v>200</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="8"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="24">
+        <v>100</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>11</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="24">
+        <v>300</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>12</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="24">
+        <v>60</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>14</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="24">
+        <v>400</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="24">
+        <v>24</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>16</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="25">
+        <v>17</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>18</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="25">
+        <v>19</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>20</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="25">
+        <v>21</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
+        <v>22</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="24">
+        <v>400</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="25">
+        <v>23</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>24</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>25</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>26</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="24">
+        <v>4</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="25">
+        <v>27</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="8"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <v>28</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="25">
+        <v>29</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
+        <v>30</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="25">
+        <v>31</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="25">
+        <v>32</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="25">
+        <v>33</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="25">
+        <v>34</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+      <c r="C41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="8"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="24">
+        <v>450</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C43" s="8"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="24">
+        <v>300</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
       <c r="D44" s="10"/>
       <c r="E44" s="9"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="5"/>
     </row>
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -1106,7 +1234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
